--- a/Datax.xlsx
+++ b/Datax.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Busos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>R</t>
   </si>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,10 +451,7 @@
         <v>-0.1</v>
       </c>
       <c r="C3">
-        <v>-0.127</v>
-      </c>
-      <c r="D3">
-        <v>1.0449999999999999</v>
+        <v>-0.05</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -468,16 +465,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>-0.05</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -488,32 +482,15 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.13</v>
-      </c>
-      <c r="C5">
-        <v>3.9E-2</v>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-0.05</v>
-      </c>
-      <c r="C6">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -553,10 +530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,16 +566,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.4030000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D2">
-        <v>0.22303999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -606,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>5.4030000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.22303999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="E3">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -623,16 +600,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
       <c r="C4">
-        <v>5.6950000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.17388000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,82 +620,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.8110000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
-        <v>0.17632</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>4.6989999999999997E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.19797000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>6.701E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.17102999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1.3350000000000001E-2</v>
-      </c>
-      <c r="D8">
-        <v>4.2110000000000002E-2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/Datax.xlsx
+++ b/Datax.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSEP\Desktop\TFG\Codi\Tests\Tests_18_03_24_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSEP\Desktop\TFG\Codi\Tests\Tests_25_03_01_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>R</t>
   </si>
@@ -108,9 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,7 +395,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -447,14 +448,17 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>-0.1</v>
+      <c r="B3" s="2">
+        <v>-2</v>
       </c>
       <c r="C3">
-        <v>-0.05</v>
+        <v>-0.5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -465,32 +469,15 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -530,10 +517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,33 +553,33 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -600,42 +587,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9</v>
       </c>
     </row>
   </sheetData>
